--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DC461C-AC57-C44F-934A-F3B8E8954C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEAEB4-B7A7-C248-9349-1C02D9D9C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="19200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>blank</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Materialität von Religion / Religionsästhetik</t>
   </si>
   <si>
-    <t>Religionsgeografie: Orte, Räume, Wallfahrten, Tourismus</t>
-  </si>
-  <si>
     <t>Heilung</t>
   </si>
   <si>
@@ -212,10 +209,31 @@
     <t>Vorstellen</t>
   </si>
   <si>
-    <t>Was ist Religion? Definitionen von Religion</t>
-  </si>
-  <si>
     <t>Ausstellung: einander sehen – interreligiöse Kalligraphie</t>
+  </si>
+  <si>
+    <t>Religionsgeografie</t>
+  </si>
+  <si>
+    <t>Was ist Religion?</t>
+  </si>
+  <si>
+    <t>[stausbergReligionBegriffDefinitionen2012a, wenzelDefinitionenReligion2023a]</t>
+  </si>
+  <si>
+    <t>[brombergerFussballAlsWeltsicht2003a, langerTherapeutischreligioseRitualperformanzenIm2015a]</t>
+  </si>
+  <si>
+    <t>[frankeReligionenReligionswissenschaftUnd2012a, gemmekeMaraboutWomenDakar2009a]</t>
+  </si>
+  <si>
+    <t>[prohlMaterialeReligion2012a]</t>
+  </si>
+  <si>
+    <t>[csordasIntroduction1994a, zinserOrakelUndOffenbarung2010a]</t>
+  </si>
+  <si>
+    <t>[riesebrodtFundamentalismusAlsPatriarchalische1990]</t>
   </si>
 </sst>
 </file>
@@ -629,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,7 +724,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G15" si="1">B2 &amp; ". " &amp; F2</f>
@@ -740,11 +758,11 @@
         <v>2023-10-24-1.md</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="1"/>
-        <v>1. Was ist Religion? Definitionen von Religion</v>
+        <v>1. Was ist Religion?</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="2"/>
@@ -752,7 +770,10 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
-        <v>1-Was-ist-Religion?-Definitionen-von-Religion</v>
+        <v>1-Was-ist-Religion?</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="4"/>
@@ -788,6 +809,9 @@
         <f t="shared" si="3"/>
         <v>2-Rituale-und-Gesellschaft</v>
       </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
       <c r="M4" t="str">
         <f t="shared" si="4"/>
         <v>[2]</v>
@@ -856,6 +880,9 @@
         <f t="shared" si="3"/>
         <v>4-Religion-und-Gender</v>
       </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
         <v>[4]</v>
@@ -910,7 +937,7 @@
         <v>2023-11-28-6.md</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
@@ -992,6 +1019,9 @@
         <f t="shared" si="3"/>
         <v>8-Materialität-von-Religion-/-Religionsästhetik</v>
       </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
         <v>[8]</v>
@@ -1012,11 +1042,11 @@
         <v>2023-12-19-9.md</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>9. Religionsgeografie: Orte, Räume, Wallfahrten, Tourismus</v>
+        <v>9. Religionsgeografie</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
@@ -1024,7 +1054,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>9-Religionsgeografie:-Orte,-Räume,-Wallfahrten,-Tourismus</v>
+        <v>9-Religionsgeografie</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
@@ -1046,7 +1076,7 @@
         <v>2024-01-09-10.md</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
@@ -1060,6 +1090,9 @@
         <f t="shared" si="3"/>
         <v>10-Heilung</v>
       </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
         <v>[10]</v>
@@ -1080,7 +1113,7 @@
         <v>2024-01-16-11.md</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
@@ -1114,7 +1147,7 @@
         <v>2024-01-23-12.md</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -1159,7 +1192,7 @@
         <v>2024-01-30-13.md</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -1173,6 +1206,9 @@
         <f t="shared" si="3"/>
         <v>13-Interreligiöser-Dialog</v>
       </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
         <v>[13]</v>
@@ -1204,7 +1240,7 @@
         <v>2024-02-06-14.md</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ref="G16" si="6">B16 &amp; ". " &amp; F16</f>
@@ -1239,5 +1275,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FEAEB4-B7A7-C248-9349-1C02D9D9C7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A75EF0-70B6-D349-A7F2-CECBA792ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="19200" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>blank</t>
   </si>
@@ -218,22 +218,64 @@
     <t>Was ist Religion?</t>
   </si>
   <si>
+    <t>02_Fussball.jpg</t>
+  </si>
+  <si>
+    <t>04.MarabouWomen.jpg</t>
+  </si>
+  <si>
+    <t>06_gegenseitiges.anerkennen.shahid.alam.png.webp</t>
+  </si>
+  <si>
+    <t>08_materialeReligion.jpg</t>
+  </si>
+  <si>
+    <t>12_iranischeSchiiten.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+---
+layout: post
+session: 0
+tags: [0]
+level: overview
+---</t>
+  </si>
+  <si>
     <t>[stausbergReligionBegriffDefinitionen2012a, wenzelDefinitionenReligion2023a]</t>
   </si>
   <si>
     <t>[brombergerFussballAlsWeltsicht2003a, langerTherapeutischreligioseRitualperformanzenIm2015a]</t>
   </si>
   <si>
+    <t>[rengerIIIMeisterJuengerUnd2012]</t>
+  </si>
+  <si>
     <t>[frankeReligionenReligionswissenschaftUnd2012a, gemmekeMaraboutWomenDakar2009a]</t>
   </si>
   <si>
+    <t>[bernerSynkretismus2001a, langerYezidismScholarlyLiterature2010]</t>
+  </si>
+  <si>
+    <t>[pelikanWrittenTorahTalmud2006]</t>
+  </si>
+  <si>
     <t>[prohlMaterialeReligion2012a]</t>
   </si>
   <si>
+    <t>[hess12SacredSpaces2018a, walker11Pilgrimage2018a]</t>
+  </si>
+  <si>
     <t>[csordasIntroduction1994a, zinserOrakelUndOffenbarung2010a]</t>
   </si>
   <si>
+    <t>[campbellContextualizingCurrentDigital2020, mattesYouBeOnYoungBelievers2022]</t>
+  </si>
+  <si>
     <t>[riesebrodtFundamentalismusAlsPatriarchalische1990]</t>
+  </si>
+  <si>
+    <t>[schmiedelInterreligioeserDialogAls2008]</t>
   </si>
 </sst>
 </file>
@@ -244,9 +286,16 @@
     <numFmt numFmtId="164" formatCode="dd\.mm"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -311,21 +360,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -335,11 +384,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,8 +795,8 @@
         <f t="shared" ref="M2:M15" si="4">"["&amp;B2&amp;"]"</f>
         <v>[0]</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
+      <c r="N2" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -772,15 +825,15 @@
         <f t="shared" si="3"/>
         <v>1-Was-ist-Religion?</v>
       </c>
-      <c r="K3" t="s">
-        <v>41</v>
+      <c r="K3" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="4"/>
         <v>[1]</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -805,19 +858,22 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="3"/>
         <v>2-Rituale-und-Gesellschaft</v>
       </c>
-      <c r="K4" t="s">
-        <v>42</v>
+      <c r="K4" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="4"/>
         <v>[2]</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -846,12 +902,15 @@
         <f t="shared" si="3"/>
         <v>3-Religiöse-Gruppenbildung-und-Autoritäten</v>
       </c>
+      <c r="K5" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
         <v>[3]</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,19 +935,22 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="3"/>
         <v>4-Religion-und-Gender</v>
       </c>
-      <c r="K6" t="s">
-        <v>43</v>
+      <c r="K6" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
         <v>[4]</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,12 +979,15 @@
         <f t="shared" si="3"/>
         <v>5-Häresie-und-Orthodoxie</v>
       </c>
+      <c r="K7" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
         <v>[5]</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -947,16 +1012,20 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="3"/>
         <v>6-Ausstellung:-einander-sehen-–-interreligiöse-Kalligraphie</v>
       </c>
+      <c r="K8" s="13"/>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
         <v>[6]</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -985,12 +1054,15 @@
         <f t="shared" si="3"/>
         <v>7-Mündlichkeit-und-Schriftlichkeit</v>
       </c>
+      <c r="K9" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
         <v>[7]</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1015,19 +1087,22 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="3"/>
         <v>8-Materialität-von-Religion-/-Religionsästhetik</v>
       </c>
-      <c r="K10" t="s">
-        <v>44</v>
+      <c r="K10" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
         <v>[8]</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1056,12 +1131,15 @@
         <f t="shared" si="3"/>
         <v>9-Religionsgeografie</v>
       </c>
+      <c r="K11" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
         <v>[9]</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,15 +1168,15 @@
         <f t="shared" si="3"/>
         <v>10-Heilung</v>
       </c>
-      <c r="K12" t="s">
-        <v>45</v>
+      <c r="K12" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
         <v>[10]</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1127,12 +1205,15 @@
         <f t="shared" si="3"/>
         <v>11-Digital-Religion</v>
       </c>
+      <c r="K13" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>[11]</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,27 +1238,22 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="3"/>
         <v>12-Religionskonflikte,-Fundamentalismus</v>
       </c>
+      <c r="K14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
         <v>[12]</v>
       </c>
-      <c r="N14" t="str">
-        <f>"---
-layout: post
-" &amp; B$1 &amp; ": " &amp; B14 &amp; "
-" &amp; M$1 &amp; ": " &amp; M14 &amp; "
-level: overview
----"</f>
-        <v>---
-layout: post
-session: 12
-tags: [12]
-level: overview
----</v>
+      <c r="N14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1206,8 +1282,8 @@
         <f t="shared" si="3"/>
         <v>13-Interreligiöser-Dialog</v>
       </c>
-      <c r="K15" t="s">
-        <v>46</v>
+      <c r="K15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A75EF0-70B6-D349-A7F2-CECBA792ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE58D-4BEC-C44B-A2DF-DF56F296D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>blank</t>
   </si>
@@ -276,6 +276,36 @@
   </si>
   <si>
     <t>[schmiedelInterreligioeserDialogAls2008]</t>
+  </si>
+  <si>
+    <t>candle.jpg</t>
+  </si>
+  <si>
+    <t>magnifying-glass.jpg</t>
+  </si>
+  <si>
+    <t>digital.jpg</t>
+  </si>
+  <si>
+    <t>kaaba.jpg</t>
+  </si>
+  <si>
+    <t>yezidi.jpg</t>
+  </si>
+  <si>
+    <t>synagogue-scroll.jpg</t>
+  </si>
+  <si>
+    <t>madaba-map.jpg</t>
+  </si>
+  <si>
+    <t>interreligious-conversation.png</t>
+  </si>
+  <si>
+    <t>girl-bridge.jpg</t>
+  </si>
+  <si>
+    <t>astrolabe.jpg</t>
   </si>
 </sst>
 </file>
@@ -700,8 +730,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -787,6 +817,9 @@
         <f t="shared" ref="H2:H15" si="2">B2</f>
         <v>0</v>
       </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J15" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G2,".",""),"&amp;","")," ","-"),"--","-")</f>
         <v>0-Vorstellen</v>
@@ -821,6 +854,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
       <c r="J3" t="str">
         <f t="shared" si="3"/>
         <v>1-Was-ist-Religion?</v>
@@ -898,6 +934,9 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" si="3"/>
         <v>3-Religiöse-Gruppenbildung-und-Autoritäten</v>
@@ -974,6 +1013,9 @@
       <c r="H7" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="3"/>
@@ -1050,6 +1092,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="3"/>
         <v>7-Mündlichkeit-und-Schriftlichkeit</v>
@@ -1127,6 +1172,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="I11" t="s">
+        <v>65</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="3"/>
         <v>9-Religionsgeografie</v>
@@ -1164,6 +1212,9 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="3"/>
         <v>10-Heilung</v>
@@ -1201,6 +1252,9 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
       <c r="J13" t="str">
         <f t="shared" si="3"/>
         <v>11-Digital-Religion</v>
@@ -1278,6 +1332,9 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
       <c r="J15" t="str">
         <f t="shared" si="3"/>
         <v>13-Interreligiöser-Dialog</v>
@@ -1325,6 +1382,9 @@
       <c r="H16" s="3">
         <f t="shared" ref="H16" si="7">B16</f>
         <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ref="J16" si="8">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(G16,".",""),"&amp;","")," ","-"),"--","-")</f>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EDE58D-4BEC-C44B-A2DF-DF56F296D3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B643CBE-EB01-6342-967B-BE2560152FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,7 +305,7 @@
     <t>girl-bridge.jpg</t>
   </si>
   <si>
-    <t>astrolabe.jpg</t>
+    <t>03_heilung_cr.jpg</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B643CBE-EB01-6342-967B-BE2560152FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A35C3-3E2B-1340-99FE-FF21957744EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>blank</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>03_heilung_cr.jpg</t>
+  </si>
+  <si>
+    <t>Historische und gegenwärtige Beispiele der Gruppenbildung anhand eines differenzierten Konzepts von "Meisterung/Jüngerschaft" erläutern können.</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,6 +947,9 @@
       <c r="K5" s="13" t="s">
         <v>49</v>
       </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
       <c r="M5" t="str">
         <f t="shared" si="4"/>
         <v>[3]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0A35C3-3E2B-1340-99FE-FF21957744EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1269992-ACF6-2C4F-B80B-C2DDDCB7F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>blank</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Historische und gegenwärtige Beispiele der Gruppenbildung anhand eines differenzierten Konzepts von "Meisterung/Jüngerschaft" erläutern können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religiöse Entwicklungen anhand differenzierter Kategorien des "Synkretismus" systematisch betrachten zu können. </t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -750,7 +753,8 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="77.83203125" customWidth="1"/>
+    <col min="13" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1030,6 +1034,9 @@
       <c r="K7" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
         <v>[5]</v>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1269992-ACF6-2C4F-B80B-C2DDDCB7F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89104A9B-BDA8-754A-B315-AC3D27D3D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sessions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>blank</t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t xml:space="preserve">Religiöse Entwicklungen anhand differenzierter Kategorien des "Synkretismus" systematisch betrachten zu können. </t>
+  </si>
+  <si>
+    <t>Die mündliche und schriftliche Dynamik der abrahamitischen Religionen im Verhältnis zueinander zu beschreiben.</t>
+  </si>
+  <si>
+    <t>Erklären können, auf welche Weise Orte sakrale Bedeutung erlangen, und diese Bedeutung anhand jüdischer, christlicher und islamischer Beispiele erläutern.</t>
   </si>
 </sst>
 </file>
@@ -736,8 +742,8 @@
   </sheetPr>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1115,6 +1121,9 @@
       <c r="K9" s="13" t="s">
         <v>52</v>
       </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
         <v>[7]</v>
@@ -1194,6 +1203,9 @@
       </c>
       <c r="K11" s="13" t="s">
         <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>

--- a/_data/sessions.xlsx
+++ b/_data/sessions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/Github/jirelations/23rw/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89104A9B-BDA8-754A-B315-AC3D27D3D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813BAB76-9D98-2C40-A4D5-A6F91CC56388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>blank</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>Erklären können, auf welche Weise Orte sakrale Bedeutung erlangen, und diese Bedeutung anhand jüdischer, christlicher und islamischer Beispiele erläutern.</t>
+  </si>
+  <si>
+    <t>Überlegen und erklären können, inwieweit religionswissenschaftliche Ansätze zum interreligiösen Dialog beitragen können, sollen und dürfen.</t>
+  </si>
+  <si>
+    <t>Bei der Betrachtung von religiöser Identität, Autorität und Gemeinschaft eine vielschichtige Sichtweise auf digitale Umgebungen einzunehmen.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +749,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,6 +1293,9 @@
       <c r="K13" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>[11]</v>
@@ -1366,6 +1375,9 @@
       </c>
       <c r="K15" s="13" t="s">
         <v>58</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
